--- a/Data/Input/부동산공시_배혜빈.xlsx
+++ b/Data/Input/부동산공시_배혜빈.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpasj\Documents\RPA교육\03_수업교안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\RPA_RE_5\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211559CD-3E03-425E-B8EA-E8CD2B974056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="회원목록" sheetId="1" r:id="rId1"/>
+    <sheet name="20230101" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,274 +30,985 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
+    </x:ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>고객번호</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>고객명</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>대분류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>중분류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>단지명</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>기준가격(￦)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>공시기준일</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>공시기준일 가격(￦)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>변동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A0001</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인천광역시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>동구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우각로93번길</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천일빌라</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A0002</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인천광역시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연수구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>원인재로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연수주공1차</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>서울특별시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강서구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>마곡서로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경동미르웰마곡</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>동명없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>대전광역시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>유성구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>문화원로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>봉명시티빌</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정보없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경기도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>과천시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사기막길</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해든팰리스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세종특별자치시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>나성북1로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>한신더휴리저브</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>충청남도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>부여군</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사비로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세운빌라</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제1동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>경상북도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>구미시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>백산로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우방타운1</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제주특별자치도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제주시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>노형2길</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하임스톤</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전라남도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>구례군</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>백련길</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>청담웰피아</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>102동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
   <si>
     <t>고객번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가격(￦)</t>
+  </si>
+  <si>
+    <t>공시기준일</t>
+  </si>
+  <si>
+    <t>공시기준일 가격(￦)</t>
+  </si>
+  <si>
+    <t>변동</t>
+  </si>
+  <si>
+    <t>확인용</t>
   </si>
   <si>
     <t>A0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0003</t>
-  </si>
-  <si>
-    <t>A0004</t>
-  </si>
-  <si>
-    <t>A0005</t>
-  </si>
-  <si>
-    <t>A0006</t>
-  </si>
-  <si>
-    <t>A0007</t>
-  </si>
-  <si>
-    <t>A0008</t>
-  </si>
-  <si>
-    <t>A0009</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>우각로93번길</t>
+  </si>
+  <si>
+    <t>천일빌라</t>
+  </si>
+  <si>
+    <t>2023.1.1</t>
+  </si>
+  <si>
+    <t>54,800,000</t>
+  </si>
+  <si>
+    <t>인천광역시 동구 우각로93번길 15(동구 창영동   107-4)</t>
   </si>
   <si>
     <t>A0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0010</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>원인재로</t>
+  </si>
+  <si>
+    <t>연수주공1차</t>
+  </si>
+  <si>
+    <t>61,900,000</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 원인재로 315(연수구 연수동   533)</t>
   </si>
   <si>
     <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>마곡서로</t>
+  </si>
+  <si>
+    <t>경동미르웰마곡</t>
+  </si>
+  <si>
+    <t>동명없음</t>
+  </si>
+  <si>
+    <t>186,000,000</t>
+  </si>
+  <si>
+    <t>서울특별시 강서구 마곡서로 205-21(강서구 마곡동   327-51)</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>문화원로</t>
+  </si>
+  <si>
+    <t>봉명시티빌</t>
+  </si>
+  <si>
+    <t>정보없음</t>
+  </si>
+  <si>
+    <t>36,500,000</t>
+  </si>
+  <si>
+    <t>대전광역시 유성구 문화원로 119(유성구 봉명동   640-7)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>과천시</t>
+  </si>
+  <si>
+    <t>사기막길</t>
+  </si>
+  <si>
+    <t>해든팰리스</t>
+  </si>
+  <si>
+    <t>A동</t>
+  </si>
+  <si>
+    <t>[셀렉 에러] 동</t>
+  </si>
+  <si>
+    <t>나성북1로</t>
+  </si>
+  <si>
+    <t>한신더휴리저브</t>
   </si>
   <si>
     <t>충청남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여군</t>
+  </si>
+  <si>
+    <t>사비로</t>
+  </si>
+  <si>
+    <t>세운빌라</t>
+  </si>
+  <si>
+    <t>제1동</t>
+  </si>
+  <si>
+    <t>99,700,000</t>
+  </si>
+  <si>
+    <t>하락</t>
+  </si>
+  <si>
+    <t>충청남도 부여군 사비로 17(부여군 부여읍 동남리   202-1)</t>
   </si>
   <si>
     <t>경상북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>백산로</t>
+  </si>
+  <si>
+    <t>우방타운1</t>
+  </si>
+  <si>
+    <t>121,000,000</t>
+  </si>
+  <si>
+    <t>경상북도 구미시 백산로 183(구미시 송정동   455-1)</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>노형2길</t>
+  </si>
+  <si>
+    <t>하임스톤</t>
+  </si>
+  <si>
+    <t>61,600,000</t>
+  </si>
+  <si>
+    <t>상승</t>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 노형2길 47-4(제주시 노형동   3814)</t>
   </si>
   <si>
     <t>전라남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우각로93번길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천일빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인재로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수주공1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡서로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경동미르웰마곡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화원로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉명시티빌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과천시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사기막길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든팰리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나성북1로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한신더휴리저브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사비로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세운빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백산로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우방타운1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노형2길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하임스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구례군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백련길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청담웰피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일 가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137,000,000</t>
+  </si>
+  <si>
+    <t>전라남도 구례군 백련길 31(구례군 구례읍 백련리   593)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +1032,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -372,20 +1096,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,11 +1446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="O12" sqref="O12"/>
       <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -744,41 +1470,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -786,48 +1512,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>203</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>54800000</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>101</v>
@@ -835,124 +1561,124 @@
       <c r="H3" s="1">
         <v>111</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>61900000</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
         <v>602</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>186000000</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>305</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H6" s="1">
         <v>202</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>343000000</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>603</v>
@@ -960,59 +1686,59 @@
       <c r="H7" s="1">
         <v>502</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>879000000</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="1">
         <v>305</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>103000000</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -1020,70 +1746,507 @@
       <c r="H9" s="1">
         <v>107</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>136000000</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>204</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>61000000</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1">
         <v>105</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>158000000</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="9.125" style="3"/>
+    <col min="9" max="9" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="3"/>
+    <col min="11" max="11" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="3">
+        <v>203</v>
+      </c>
+      <c r="I2" s="3">
+        <v>54800000</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="3">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3">
+        <v>61900000</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="3">
+        <v>602</v>
+      </c>
+      <c r="I4" s="3">
+        <v>186000000</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="3">
+        <v>305</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="3">
+        <v>202</v>
+      </c>
+      <c r="I6" s="3">
+        <v>343000000</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="3">
+        <v>603</v>
+      </c>
+      <c r="H7" s="3">
+        <v>502</v>
+      </c>
+      <c r="I7" s="3">
+        <v>879000000</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3">
+        <v>305</v>
+      </c>
+      <c r="I8" s="3">
+        <v>103000000</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3">
+        <v>136000000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="3">
+        <v>204</v>
+      </c>
+      <c r="I10" s="3">
+        <v>61000000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="3">
+        <v>105</v>
+      </c>
+      <c r="I11" s="3">
+        <v>158000000</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>